--- a/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
+++ b/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulholtz/Desktop/FS Direct/7 Portfolio I Development/Week 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulholtz/UmholtzTommy/Logs/7 Portfolio I Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="460" windowWidth="18920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="7700" yWindow="460" windowWidth="18920" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Name:</t>
   </si>
@@ -77,16 +77,46 @@
     <t>A Course for Confidence</t>
   </si>
   <si>
-    <t>Time Estimate</t>
-  </si>
-  <si>
     <t>Burn-Up List</t>
   </si>
   <si>
-    <t>P &amp; P</t>
-  </si>
-  <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Week 2 Total</t>
+  </si>
+  <si>
+    <t>Complete Assingments For Review</t>
+  </si>
+  <si>
+    <t>Call to Action (Total)</t>
+  </si>
+  <si>
+    <t>Mission Statement</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>SWOT</t>
+  </si>
+  <si>
+    <t>P &amp; P 2</t>
+  </si>
+  <si>
+    <t>P &amp; P 1</t>
+  </si>
+  <si>
+    <t>Career Module</t>
+  </si>
+  <si>
+    <t>Time Management Worksheet</t>
   </si>
 </sst>
 </file>
@@ -102,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +151,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -134,10 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,20 +509,20 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f>SUM(C8:C17)</f>
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f>SUM(D8:D17)</f>
-        <v>24.3</v>
-      </c>
-      <c r="E7">
+        <v>36.5</v>
+      </c>
+      <c r="E7" s="4">
         <f>D7-C7</f>
-        <v>9.3000000000000007</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -489,11 +533,11 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E17" si="0">D8-C8</f>
-        <v>1</v>
+        <f t="shared" ref="E8:E31" si="0">D8-C8</f>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -504,11 +548,11 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -534,11 +578,11 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-0.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,7 +617,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -588,37 +632,37 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -629,6 +673,188 @@
       <c r="E17">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <f>SUM(C19:C30)</f>
+        <v>24.4</v>
+      </c>
+      <c r="D18" s="4">
+        <f>SUM(D19:D31)</f>
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="4">
+        <f>C18-D19</f>
+        <v>24.099999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>0.3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
+++ b/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
@@ -469,7 +469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
       </c>
       <c r="C18" s="4">
         <f>SUM(C19:C31)</f>
-        <v>1</v>
+        <v>24.5</v>
       </c>
       <c r="D18" s="4">
         <f>B18-C19</f>
@@ -737,9 +737,12 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -749,9 +752,12 @@
       <c r="B22">
         <v>2</v>
       </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -761,9 +767,12 @@
       <c r="B23">
         <v>2</v>
       </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,9 +782,12 @@
       <c r="B24">
         <v>2</v>
       </c>
+      <c r="C24">
+        <v>1.5</v>
+      </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -785,9 +797,12 @@
       <c r="B25">
         <v>2</v>
       </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -797,9 +812,12 @@
       <c r="B26">
         <v>2</v>
       </c>
+      <c r="C26">
+        <v>1.5</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,9 +827,12 @@
       <c r="B27">
         <v>3</v>
       </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -821,9 +842,12 @@
       <c r="B28">
         <v>5</v>
       </c>
+      <c r="C28">
+        <v>3.5</v>
+      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -833,9 +857,12 @@
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -845,9 +872,12 @@
       <c r="B30">
         <v>3</v>
       </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">

--- a/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
+++ b/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="460" windowWidth="18920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="14820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Name:</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Section:</t>
   </si>
   <si>
-    <t>Week 1 Total</t>
-  </si>
-  <si>
     <t>One</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Week 2 Total</t>
-  </si>
-  <si>
     <t>Complete Assingments For Review</t>
   </si>
   <si>
@@ -117,6 +111,30 @@
   </si>
   <si>
     <t>Time Management Worksheet</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Assingments </t>
+  </si>
+  <si>
+    <t>Communicating with Clarity</t>
+  </si>
+  <si>
+    <t>Communicating with Visual Tools</t>
+  </si>
+  <si>
+    <t>P &amp; P 3</t>
   </si>
 </sst>
 </file>
@@ -182,12 +200,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -518,7 +539,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <f>SUM(B8:B17)</f>
@@ -535,7 +556,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -550,7 +571,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -565,7 +586,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -580,7 +601,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -595,7 +616,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -610,7 +631,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -625,7 +646,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -640,7 +661,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -655,7 +676,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -670,7 +691,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -685,7 +706,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4">
         <f>SUM(B19:B30)</f>
@@ -693,31 +714,31 @@
       </c>
       <c r="C18" s="4">
         <f>SUM(C19:C31)</f>
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D18" s="4">
-        <f>B18-C19</f>
-        <v>24.099999999999998</v>
+        <f>B18-C18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>0.2</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -732,7 +753,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -747,7 +768,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -762,7 +783,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -777,7 +798,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -792,7 +813,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -807,7 +828,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -822,7 +843,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -837,7 +858,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -852,7 +873,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -867,7 +888,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -882,7 +903,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>0.5</v>
@@ -893,6 +914,125 @@
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <f>SUM(B33:B43)</f>
+        <v>22.5</v>
+      </c>
+      <c r="C32" s="4">
+        <f>SUM(C33:C44)</f>
+        <v>1.3</v>
+      </c>
+      <c r="D32" s="4">
+        <f>B32-C32</f>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
+++ b/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="14820" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="14820" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Name:</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Week 3</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t xml:space="preserve">Review Assingments </t>
@@ -141,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +148,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -209,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +494,8 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,27 +926,27 @@
         <v>31</v>
       </c>
       <c r="B32" s="4">
-        <f>SUM(B33:B43)</f>
-        <v>22.5</v>
+        <f>SUM(B33:B42)</f>
+        <v>18.5</v>
       </c>
       <c r="C32" s="4">
         <f>SUM(C33:C44)</f>
-        <v>1.3</v>
+        <v>12.7</v>
       </c>
       <c r="D32" s="4">
         <f>B32-C32</f>
-        <v>21.2</v>
+        <v>5.8000000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0.2</v>
       </c>
-      <c r="C33" t="s">
-        <v>32</v>
+      <c r="C33">
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,6 +956,9 @@
       <c r="B34">
         <v>0.3</v>
       </c>
+      <c r="C34">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -970,26 +978,35 @@
       <c r="B36">
         <v>4</v>
       </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -997,42 +1014,51 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0.2</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>0.2</v>
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
+++ b/Logs/7 Portfolio I Development/UmholtzTomas_TimeEstimation.xlsx
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -214,6 +214,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,8 +495,8 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,14 +932,14 @@
       </c>
       <c r="C32" s="4">
         <f>SUM(C33:C44)</f>
-        <v>12.7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D32" s="4">
         <f>B32-C32</f>
-        <v>5.8000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.3999999999999986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -948,8 +949,12 @@
       <c r="C33">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="7">
+        <f t="shared" ref="D33:D44" si="1">B33-C33</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -959,8 +964,12 @@
       <c r="C34">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -970,8 +979,12 @@
       <c r="C35">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -981,8 +994,12 @@
       <c r="C36" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -992,8 +1009,12 @@
       <c r="C37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1003,32 +1024,57 @@
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1038,8 +1084,12 @@
       <c r="C42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1047,10 +1097,14 @@
         <v>0.2</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1059,6 +1113,10 @@
       </c>
       <c r="C44">
         <v>4</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
